--- a/qianhai/blacklist/address.xlsx
+++ b/qianhai/blacklist/address.xlsx
@@ -17,22 +17,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>(10464, 18800]</t>
-  </si>
-  <si>
-    <t>(18800, 27136]</t>
-  </si>
-  <si>
-    <t>(2077.984, 10464]</t>
-  </si>
-  <si>
-    <t>(27136, 35472]</t>
-  </si>
-  <si>
-    <t>(35472, 43808]</t>
-  </si>
-  <si>
-    <t>(43808, 52144]</t>
+    <t>(0, 3000]</t>
+  </si>
+  <si>
+    <t>(10000, 15000]</t>
+  </si>
+  <si>
+    <t>(15000, )</t>
+  </si>
+  <si>
+    <t>(3000, 5000]</t>
+  </si>
+  <si>
+    <t>(5000, 7000]</t>
+  </si>
+  <si>
+    <t>(7000, 10000]</t>
   </si>
   <si>
     <t>价格区间</t>
@@ -435,13 +435,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -449,44 +449,44 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>35.0</v>
+        <v>11.0</v>
       </c>
       <c r="C5" t="n">
-        <v>46.0</v>
+        <v>17.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,27 +494,27 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
   </sheetData>
